--- a/docs/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/docs/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T12:02:08-04:00</t>
+    <t>2023-05-08T17:35:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
